--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0604DF-ECF7-4ABD-8C72-9A284435CF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CAF65-A2CA-4E65-8B6F-413C6D949FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B61" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B63" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1917,6 +1917,54 @@
       </c>
       <c r="G61">
         <v>1320000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>14000</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>1350000000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>14200</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>1380000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CAF65-A2CA-4E65-8B6F-413C6D949FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4450F-8E55-40FB-9578-F7ABCBC13D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B63" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B65" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1965,6 +1965,54 @@
       </c>
       <c r="G63">
         <v>1380000000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>14400</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>1410000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>14600</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>1440000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D4450F-8E55-40FB-9578-F7ABCBC13D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F2EFB-20B3-4E40-A874-064438AA79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B65" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B67" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -2013,6 +2013,54 @@
       </c>
       <c r="G65">
         <v>1440000000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>14800</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>1470000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>15000</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>1500000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F2EFB-20B3-4E40-A874-064438AA79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F09D2B-F9DB-4B28-AAF4-BCDCE3013FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B68" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -2061,6 +2061,30 @@
       </c>
       <c r="G67">
         <v>1500000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>15200</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>1530000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F09D2B-F9DB-4B28-AAF4-BCDCE3013FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A530F0F4-EDD0-401E-B69D-8B3C5E63FD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="35850" yWindow="90" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B68" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B69" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -2085,6 +2085,126 @@
       </c>
       <c r="G68">
         <v>1530000000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>15400</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>1560000000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B73" si="1">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>15600</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>1590000000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>15800</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>1620000000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>16000</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>1650000000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>16200</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>1680000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A530F0F4-EDD0-401E-B69D-8B3C5E63FD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6982747-8720-48F6-ABF2-2547DDB4E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35850" yWindow="90" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B73" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B78" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -2205,6 +2205,126 @@
       </c>
       <c r="G73">
         <v>1680000000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>16400</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>1710000000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>16600</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>1740000000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>16800</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>1770000000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>17000</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>1800000000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>17200</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>1830000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6982747-8720-48F6-ABF2-2547DDB4E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F01AA2-E8FE-490C-8E42-0D6571559540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B78" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B86" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -2325,6 +2325,198 @@
       </c>
       <c r="G78">
         <v>1830000000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>17400</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>1860000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>17600</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>1890000000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>17800</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>1920000000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>18000</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>1950000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>18200</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83">
+        <v>1980000000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>18400</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>2010000000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>18600</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>2040000000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>18800</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>2070000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F01AA2-E8FE-490C-8E42-0D6571559540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514AF416-263F-491A-A644-4844DBB88D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B86" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B93" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -2517,6 +2517,174 @@
       </c>
       <c r="G86">
         <v>2070000000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>19000</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>2100000000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>19200</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>2130000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>19400</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89">
+        <v>2160000000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>19600</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90">
+        <v>2190000000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>19800</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91">
+        <v>2220000000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>20000</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>2250000000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>20200</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>2280000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514AF416-263F-491A-A644-4844DBB88D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BEBC2-A9AA-4A06-A6D0-FE76C984FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B93" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B100" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -2685,6 +2685,174 @@
       </c>
       <c r="G93">
         <v>2280000000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>20400</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>2310000000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>20600</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>2340000000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>20800</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96">
+        <v>2370000000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>21000</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>2400000000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>21200</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>2430000000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>21400</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99">
+        <v>2460000000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>21600</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>2490000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BEBC2-A9AA-4A06-A6D0-FE76C984FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C7F24-3563-4CAF-9324-95F15CAC2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B100" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B112" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -2853,6 +2853,294 @@
       </c>
       <c r="G100">
         <v>2490000000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>21800</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>2520000000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>22000</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102">
+        <v>2550000000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>22200</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <v>2580000000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>22400</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>2610000000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>22600</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>2640000000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>22800</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>2670000000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>23000</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>2700000000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>23200</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>2730000000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>23400</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>2760000000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>23600</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110">
+        <v>2790000000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>23800</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <v>2820000000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>24000</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>2850000000000</v>
       </c>
     </row>
   </sheetData>
